--- a/data/trans_dic/P36BPD04_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R2_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.170885770419988</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1803144077986263</v>
+        <v>0.1803144077986262</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1295339881997218</v>
+        <v>0.1299551977568398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1205029686671456</v>
+        <v>0.1177999885282173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1383002965915361</v>
+        <v>0.1370911877927084</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2619572365629384</v>
+        <v>0.2631372778656668</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2410748589258692</v>
+        <v>0.2397138792580464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2304672948092454</v>
+        <v>0.2285218983486875</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1237486371042961</v>
+        <v>0.1249179477845204</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.117959550480391</v>
+        <v>0.1182944807173268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.128894262355444</v>
+        <v>0.1301231764247752</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2184847515264466</v>
+        <v>0.2207189488125111</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1855767127970055</v>
+        <v>0.1859962122463787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1894610686833161</v>
+        <v>0.1878876099385043</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1552132142496502</v>
+        <v>0.1549064339810791</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1631795294550684</v>
+        <v>0.1660760733088639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1697656330216674</v>
+        <v>0.1682632105556587</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2241324692544023</v>
+        <v>0.227287597044743</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2167769649166079</v>
+        <v>0.2212422556931287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.213276916613212</v>
+        <v>0.2130876416255938</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1886689196698972</v>
+        <v>0.189956444712975</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1828521620050798</v>
+        <v>0.1802208602078722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1924017698618261</v>
+        <v>0.1934370022801273</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2585186196607145</v>
+        <v>0.2548978753932526</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2268974652055108</v>
+        <v>0.2279880584582462</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2306724479201113</v>
+        <v>0.2337607452654061</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.2005322189107067</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2146716095983602</v>
+        <v>0.2146716095983603</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2076022152347574</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.171229067395888</v>
+        <v>0.1716869329246598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1896912152909951</v>
+        <v>0.1921930396615726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1871319488835569</v>
+        <v>0.1883860434480309</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2383872556490814</v>
+        <v>0.2312024936899233</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2416718993905065</v>
+        <v>0.2404524699025316</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2279817604333683</v>
+        <v>0.231197319668133</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.3047367330133471</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2822554357115197</v>
+        <v>0.2822554357115198</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2216894026350977</v>
+        <v>0.2183577082942583</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2747858489688788</v>
+        <v>0.2732233566614492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2558747904465049</v>
+        <v>0.2590588223242778</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2944482362211291</v>
+        <v>0.2924847241708234</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3416518545893261</v>
+        <v>0.3386831789991679</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3067350583963806</v>
+        <v>0.3078159722222129</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.2382430853367694</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2209118493497459</v>
+        <v>0.2209118493497458</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2278540870561645</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2001075279254705</v>
+        <v>0.1997714937887171</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1928596803971659</v>
+        <v>0.1941455950036417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.202841906820133</v>
+        <v>0.2056265662168887</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2837838557751256</v>
+        <v>0.2838990971212193</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2540711509079596</v>
+        <v>0.2513205850332287</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2504629180316769</v>
+        <v>0.2513028066344387</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>52823</v>
+        <v>52995</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43684</v>
+        <v>42704</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>106533</v>
+        <v>105602</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>106824</v>
+        <v>107306</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>87393</v>
+        <v>86899</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>177530</v>
+        <v>176032</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>59014</v>
+        <v>59572</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>59108</v>
+        <v>59275</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>126055</v>
+        <v>127257</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>104193</v>
+        <v>105259</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>92989</v>
+        <v>93200</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>185288</v>
+        <v>183749</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>96189</v>
+        <v>95998</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>101520</v>
+        <v>103322</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>210825</v>
+        <v>208959</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>138899</v>
+        <v>140854</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>134865</v>
+        <v>137643</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>264860</v>
+        <v>264625</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>132185</v>
+        <v>133087</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>134567</v>
+        <v>132631</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>276395</v>
+        <v>277883</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>181123</v>
+        <v>178586</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>166982</v>
+        <v>167785</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>331373</v>
+        <v>335810</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>104153</v>
+        <v>104431</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>115392</v>
+        <v>116914</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>227661</v>
+        <v>229187</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>145003</v>
+        <v>140632</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>147013</v>
+        <v>146271</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>277358</v>
+        <v>281270</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>90245</v>
+        <v>88889</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>120214</v>
+        <v>119530</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>216102</v>
+        <v>218791</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>119864</v>
+        <v>119065</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>149467</v>
+        <v>148168</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>259057</v>
+        <v>259970</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>62073</v>
+        <v>61969</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>89527</v>
+        <v>90124</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>157082</v>
+        <v>159239</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>88029</v>
+        <v>88065</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>117942</v>
+        <v>116665</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>193960</v>
+        <v>194611</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
     </row>
     <row r="36">
